--- a/掲示板表定義.xlsx
+++ b/掲示板表定義.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wiki\WEB-INF\src\wiki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11685"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="2900" windowHeight="4040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表定義書" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="312">
   <si>
     <t>ユーザー表（USERS）</t>
   </si>
@@ -897,43 +897,6 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>user_name</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>メールアドレス</t>
-    </r>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>email_address</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>archar2</t>
-    </r>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
     <t>varchar2</t>
     <phoneticPr fontId="16"/>
   </si>
@@ -942,20 +905,6 @@
     <rPh sb="0" eb="2">
       <t>ホンブン</t>
     </rPh>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <r>
-      <t>messag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
     <phoneticPr fontId="16"/>
   </si>
   <si>
@@ -1005,10 +954,6 @@
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>date</t>
     <phoneticPr fontId="16"/>
   </si>
   <si>
@@ -1061,14 +1006,6 @@
   </si>
   <si>
     <t>delete_flag</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>コンテンツ表（Contents）</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>post_date</t>
     <phoneticPr fontId="16"/>
   </si>
   <si>
@@ -1137,6 +1074,105 @@
     </rPh>
     <phoneticPr fontId="16"/>
   </si>
+  <si>
+    <t>WIKI表（WIKI_PAGE）</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>archar</t>
+    </r>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pdate_time</t>
+    </r>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アドレス</t>
+    </r>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>archar</t>
+    </r>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>imestamp</t>
+    </r>
+    <phoneticPr fontId="16"/>
+  </si>
 </sst>
 </file>
 
@@ -1154,16 +1190,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1429,7 +1468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1547,7 +1586,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1848,24 +1886,24 @@
   </sheetPr>
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="48.42578125" customWidth="1"/>
-    <col min="7" max="7" width="55.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" customWidth="1"/>
+    <col min="6" max="6" width="48.453125" customWidth="1"/>
+    <col min="7" max="7" width="55.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="77" t="s">
-        <v>305</v>
+      <c r="A1" s="76" t="s">
+        <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1901,20 +1939,20 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="75" t="s">
-        <v>299</v>
+      <c r="A3" s="74" t="s">
+        <v>293</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>308</v>
       </c>
       <c r="D3" s="7">
         <v>5</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="7"/>
@@ -1923,28 +1961,26 @@
       <c r="A4" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="5">
-        <v>50</v>
-      </c>
+      <c r="B4" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>289</v>
+      <c r="A5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="D5" s="7">
         <v>100</v>
@@ -1954,33 +1990,33 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="74" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>289</v>
+      <c r="A6" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="D6" s="7">
         <v>1000</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="75" t="s">
-        <v>293</v>
+      <c r="A7" s="74" t="s">
+        <v>288</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D7" s="7">
         <v>50</v>
@@ -1990,14 +2026,14 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="75" t="s">
-        <v>303</v>
+      <c r="A8" s="74" t="s">
+        <v>297</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -2007,14 +2043,14 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="75" t="s">
-        <v>296</v>
+      <c r="A9" s="74" t="s">
+        <v>291</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D9" s="7">
         <v>100</v>
@@ -2024,19 +2060,19 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>298</v>
+      <c r="A10" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="78" t="s">
-        <v>309</v>
+      <c r="F10" s="77" t="s">
+        <v>301</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -2201,7 +2237,7 @@
       <c r="B30" s="30"/>
       <c r="C30" s="31"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="76"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="32"/>
       <c r="G30" s="6"/>
     </row>
@@ -2241,7 +2277,7 @@
       <c r="F36" s="37"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:24" ht="12.75">
+    <row r="37" spans="1:24" ht="12.5">
       <c r="A37" s="38"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1"/>
@@ -2249,7 +2285,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:24" ht="12.75">
+    <row r="38" spans="1:24" ht="12.5">
       <c r="A38" s="38"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1"/>
@@ -2257,7 +2293,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:24" ht="12.75">
+    <row r="39" spans="1:24" ht="12.5">
       <c r="A39" s="38"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1"/>
@@ -2266,7 +2302,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:24" ht="12.75">
+    <row r="40" spans="1:24" ht="12.5">
       <c r="A40" s="38"/>
       <c r="B40" s="7"/>
       <c r="C40" s="1"/>
@@ -2275,7 +2311,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:24" ht="12.75">
+    <row r="41" spans="1:24" ht="12.5">
       <c r="A41" s="38"/>
       <c r="B41" s="7"/>
       <c r="C41" s="1"/>
@@ -2283,7 +2319,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="1:24" ht="12.75">
+    <row r="42" spans="1:24" ht="12.5">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2292,7 +2328,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:24" ht="12.75">
+    <row r="43" spans="1:24" ht="12.5">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2301,16 +2337,16 @@
       <c r="F43" s="21"/>
       <c r="G43" s="39"/>
     </row>
-    <row r="44" spans="1:24" ht="12.75">
+    <row r="44" spans="1:24" ht="12.5">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="12.75">
+    <row r="45" spans="1:24" ht="13">
       <c r="A45" s="4"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:24" ht="12.75">
+    <row r="46" spans="1:24" ht="13">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2336,7 +2372,7 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="14.25">
+    <row r="47" spans="1:24" ht="13.5">
       <c r="A47" s="29"/>
       <c r="B47" s="40"/>
       <c r="C47" s="5"/>
@@ -2345,7 +2381,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:24" ht="12.75">
+    <row r="48" spans="1:24" ht="12.5">
       <c r="A48" s="38"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
@@ -2354,7 +2390,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="12.75">
+    <row r="49" spans="1:7" ht="12.5">
       <c r="A49" s="38"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1"/>
@@ -2363,7 +2399,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="12.75">
+    <row r="50" spans="1:7" ht="12.5">
       <c r="A50" s="38"/>
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
@@ -2371,7 +2407,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="12.75">
+    <row r="51" spans="1:7" ht="12.5">
       <c r="A51" s="38"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
@@ -2379,7 +2415,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="12.75">
+    <row r="52" spans="1:7" ht="12.5">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -2388,13 +2424,13 @@
       <c r="F52" s="21"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="54" spans="1:7" ht="12.75">
+    <row r="54" spans="1:7" ht="13">
       <c r="A54" s="4"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="12.75">
+    <row r="55" spans="1:7" ht="13">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2403,31 +2439,31 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="14.25">
+    <row r="56" spans="1:7" ht="14">
       <c r="A56" s="29"/>
       <c r="B56" s="40"/>
       <c r="C56" s="31"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="81"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="41"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" ht="14.25">
+    <row r="57" spans="1:7" ht="14">
       <c r="A57" s="33"/>
       <c r="B57" s="42"/>
       <c r="C57" s="35"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="82"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="44"/>
       <c r="G57" s="39"/>
     </row>
-    <row r="59" spans="1:7" ht="12.75">
+    <row r="59" spans="1:7" ht="13">
       <c r="A59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="12.75">
+    <row r="60" spans="1:7" ht="13">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2436,25 +2472,25 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="12.75">
+    <row r="61" spans="1:7" ht="12.5">
       <c r="A61" s="29"/>
       <c r="B61" s="5"/>
       <c r="C61" s="31"/>
       <c r="D61" s="29"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
       <c r="G61" s="45"/>
     </row>
-    <row r="62" spans="1:7" ht="12.75">
+    <row r="62" spans="1:7" ht="12.5">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="38"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
       <c r="G62" s="46"/>
     </row>
-    <row r="63" spans="1:7" ht="12.75">
+    <row r="63" spans="1:7" ht="12.5">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -2463,16 +2499,16 @@
       <c r="F63" s="47"/>
       <c r="G63" s="48"/>
     </row>
-    <row r="65" spans="1:7" ht="12.75">
+    <row r="65" spans="1:7" ht="13">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:7" ht="12.75">
+    <row r="66" spans="1:7" ht="13">
       <c r="A66" s="4"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="12.75">
+    <row r="67" spans="1:7" ht="13">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2481,7 +2517,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" ht="12.75">
+    <row r="68" spans="1:7" ht="12.5">
       <c r="A68" s="29"/>
       <c r="B68" s="5"/>
       <c r="C68" s="31"/>
@@ -2490,7 +2526,7 @@
       <c r="F68" s="49"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:7" ht="12.75">
+    <row r="69" spans="1:7" ht="12.5">
       <c r="A69" s="33"/>
       <c r="B69" s="21"/>
       <c r="C69" s="35"/>
@@ -2499,13 +2535,13 @@
       <c r="F69" s="50"/>
       <c r="G69" s="21"/>
     </row>
-    <row r="71" spans="1:7" ht="12.75">
+    <row r="71" spans="1:7" ht="13">
       <c r="A71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="12.75">
+    <row r="72" spans="1:7" ht="13">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2514,7 +2550,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" ht="12.75">
+    <row r="73" spans="1:7" ht="12.5">
       <c r="A73" s="29"/>
       <c r="B73" s="5"/>
       <c r="C73" s="31"/>
@@ -2523,7 +2559,7 @@
       <c r="F73" s="49"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7" ht="12.75">
+    <row r="74" spans="1:7" ht="12.5">
       <c r="A74" s="38"/>
       <c r="B74" s="7"/>
       <c r="C74" s="1"/>
@@ -2532,7 +2568,7 @@
       <c r="F74" s="51"/>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="1:7" ht="12.75">
+    <row r="75" spans="1:7" ht="12.5">
       <c r="A75" s="38"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1"/>
@@ -2541,7 +2577,7 @@
       <c r="F75" s="52"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="1:7" ht="12.75">
+    <row r="76" spans="1:7" ht="12.5">
       <c r="A76" s="38"/>
       <c r="B76" s="7"/>
       <c r="C76" s="1"/>
@@ -2550,7 +2586,7 @@
       <c r="F76" s="51"/>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7" ht="12.75">
+    <row r="77" spans="1:7" ht="12.5">
       <c r="A77" s="33"/>
       <c r="B77" s="21"/>
       <c r="C77" s="35"/>
@@ -2559,7 +2595,7 @@
       <c r="F77" s="50"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="1:7" ht="12.75">
+    <row r="78" spans="1:7" ht="12.5">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2567,13 +2603,13 @@
       <c r="E78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="12.75">
+    <row r="80" spans="1:7" ht="13">
       <c r="A80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="12.75">
+    <row r="81" spans="1:7" ht="13">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2582,7 +2618,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" ht="12.75">
+    <row r="82" spans="1:7" ht="12.5">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2591,7 +2627,7 @@
       <c r="F82" s="49"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7" ht="12.75">
+    <row r="83" spans="1:7" ht="12.5">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -2599,7 +2635,7 @@
       <c r="F83" s="51"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" ht="12.75">
+    <row r="84" spans="1:7" ht="12.5">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -2608,7 +2644,7 @@
       <c r="F84" s="52"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" ht="12.75">
+    <row r="85" spans="1:7" ht="12.5">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -2617,7 +2653,7 @@
       <c r="F85" s="51"/>
       <c r="G85" s="11"/>
     </row>
-    <row r="86" spans="1:7" ht="12.75">
+    <row r="86" spans="1:7" ht="12.5">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -2626,13 +2662,13 @@
       <c r="F86" s="50"/>
       <c r="G86" s="39"/>
     </row>
-    <row r="88" spans="1:7" ht="12.75">
+    <row r="88" spans="1:7" ht="13">
       <c r="A88" s="4"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:7" ht="12.75">
+    <row r="89" spans="1:7" ht="13">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2641,7 +2677,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" ht="12.75">
+    <row r="90" spans="1:7" ht="12.5">
       <c r="A90" s="29"/>
       <c r="B90" s="5"/>
       <c r="C90" s="31"/>
@@ -2650,7 +2686,7 @@
       <c r="F90" s="49"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="1:7" ht="12.75">
+    <row r="91" spans="1:7" ht="12.5">
       <c r="A91" s="38"/>
       <c r="B91" s="7"/>
       <c r="C91" s="1"/>
@@ -2659,7 +2695,7 @@
       <c r="F91" s="51"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7" ht="12.75">
+    <row r="92" spans="1:7" ht="12.5">
       <c r="A92" s="38"/>
       <c r="B92" s="7"/>
       <c r="C92" s="1"/>
@@ -2668,7 +2704,7 @@
       <c r="F92" s="51"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" ht="12.75">
+    <row r="93" spans="1:7" ht="12.5">
       <c r="A93" s="38"/>
       <c r="B93" s="7"/>
       <c r="C93" s="1"/>
@@ -2677,7 +2713,7 @@
       <c r="F93" s="51"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7" ht="12.75">
+    <row r="94" spans="1:7" ht="12.5">
       <c r="A94" s="38"/>
       <c r="B94" s="7"/>
       <c r="C94" s="1"/>
@@ -2686,7 +2722,7 @@
       <c r="F94" s="52"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" spans="1:7" ht="12.75">
+    <row r="95" spans="1:7" ht="12.5">
       <c r="A95" s="38"/>
       <c r="B95" s="7"/>
       <c r="C95" s="1"/>
@@ -2695,7 +2731,7 @@
       <c r="F95" s="51"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" ht="12.75">
+    <row r="96" spans="1:7" ht="12.5">
       <c r="A96" s="33"/>
       <c r="B96" s="21"/>
       <c r="C96" s="35"/>
@@ -2704,13 +2740,13 @@
       <c r="F96" s="36"/>
       <c r="G96" s="21"/>
     </row>
-    <row r="98" spans="1:7" ht="12.75">
+    <row r="98" spans="1:7" ht="13">
       <c r="A98" s="4"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:7" ht="12.75">
+    <row r="99" spans="1:7" ht="13">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2719,7 +2755,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" ht="12.75">
+    <row r="100" spans="1:7" ht="12.5">
       <c r="A100" s="29"/>
       <c r="B100" s="5"/>
       <c r="C100" s="31"/>
@@ -2728,7 +2764,7 @@
       <c r="F100" s="49"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7" ht="12.75">
+    <row r="101" spans="1:7" ht="12.5">
       <c r="A101" s="38"/>
       <c r="B101" s="7"/>
       <c r="C101" s="1"/>
@@ -2737,7 +2773,7 @@
       <c r="F101" s="51"/>
       <c r="G101" s="11"/>
     </row>
-    <row r="102" spans="1:7" ht="12.75">
+    <row r="102" spans="1:7" ht="12.5">
       <c r="A102" s="38"/>
       <c r="B102" s="7"/>
       <c r="C102" s="1"/>
@@ -2746,7 +2782,7 @@
       <c r="F102" s="51"/>
       <c r="G102" s="11"/>
     </row>
-    <row r="103" spans="1:7" ht="12.75">
+    <row r="103" spans="1:7" ht="12.5">
       <c r="A103" s="38"/>
       <c r="B103" s="7"/>
       <c r="C103" s="1"/>
@@ -2755,7 +2791,7 @@
       <c r="F103" s="51"/>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="1:7" ht="12.75">
+    <row r="104" spans="1:7" ht="12.5">
       <c r="A104" s="38"/>
       <c r="B104" s="7"/>
       <c r="C104" s="1"/>
@@ -2764,7 +2800,7 @@
       <c r="F104" s="51"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7" ht="12.75">
+    <row r="105" spans="1:7" ht="12.5">
       <c r="A105" s="38"/>
       <c r="B105" s="7"/>
       <c r="C105" s="1"/>
@@ -2773,7 +2809,7 @@
       <c r="F105" s="51"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="1:7" ht="12.75">
+    <row r="106" spans="1:7" ht="12.5">
       <c r="A106" s="53"/>
       <c r="B106" s="54"/>
       <c r="C106" s="55"/>
@@ -2782,16 +2818,16 @@
       <c r="F106" s="50"/>
       <c r="G106" s="21"/>
     </row>
-    <row r="107" spans="1:7" ht="44.25">
+    <row r="107" spans="1:7" ht="44.5">
       <c r="B107" s="57"/>
     </row>
-    <row r="108" spans="1:7" ht="12.75">
+    <row r="108" spans="1:7" ht="13">
       <c r="A108" s="4"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:7" ht="12.75">
+    <row r="109" spans="1:7" ht="13">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2800,7 +2836,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" ht="12.75">
+    <row r="110" spans="1:7" ht="12.5">
       <c r="A110" s="32"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2809,7 +2845,7 @@
       <c r="F110" s="37"/>
       <c r="G110" s="59"/>
     </row>
-    <row r="111" spans="1:7" ht="12.75">
+    <row r="111" spans="1:7" ht="12.5">
       <c r="A111" s="38"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -2818,7 +2854,7 @@
       <c r="F111" s="51"/>
       <c r="G111" s="11"/>
     </row>
-    <row r="112" spans="1:7" ht="12.75">
+    <row r="112" spans="1:7" ht="12.5">
       <c r="A112" s="1"/>
       <c r="B112" s="8"/>
       <c r="C112" s="7"/>
@@ -2826,7 +2862,7 @@
       <c r="E112" s="7"/>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="1:7" ht="12.75">
+    <row r="113" spans="1:7" ht="12.5">
       <c r="A113" s="1"/>
       <c r="B113" s="8"/>
       <c r="C113" s="7"/>
@@ -2834,7 +2870,7 @@
       <c r="E113" s="7"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:7" ht="12.75">
+    <row r="114" spans="1:7" ht="12.5">
       <c r="A114" s="1"/>
       <c r="B114" s="8"/>
       <c r="C114" s="7"/>
@@ -2843,7 +2879,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" spans="1:7" ht="12.75">
+    <row r="115" spans="1:7" ht="12.5">
       <c r="A115" s="1"/>
       <c r="B115" s="60"/>
       <c r="C115" s="21"/>
@@ -2852,7 +2888,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="61"/>
     </row>
-    <row r="116" spans="1:7" ht="12.75">
+    <row r="116" spans="1:7" ht="12.5">
       <c r="A116" s="31"/>
       <c r="B116" s="31"/>
       <c r="C116" s="31"/>
@@ -2861,13 +2897,13 @@
       <c r="F116" s="62"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="12.75">
+    <row r="119" spans="1:7" ht="13">
       <c r="A119" s="63"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:7" ht="12.75">
+    <row r="120" spans="1:7" ht="13">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2876,7 +2912,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" ht="12.75">
+    <row r="121" spans="1:7" ht="12.5">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -2885,7 +2921,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="1:7" ht="12.75">
+    <row r="122" spans="1:7" ht="12.5">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -2894,7 +2930,7 @@
       <c r="F122" s="9"/>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="1:7" ht="12.75">
+    <row r="123" spans="1:7" ht="12.5">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -2903,7 +2939,7 @@
       <c r="F123" s="7"/>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="1:7" ht="12.75">
+    <row r="124" spans="1:7" ht="12.5">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -2912,7 +2948,7 @@
       <c r="F124" s="9"/>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="1:7" ht="12.75">
+    <row r="125" spans="1:7" ht="12.5">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -2921,7 +2957,7 @@
       <c r="F125" s="9"/>
       <c r="G125" s="13"/>
     </row>
-    <row r="126" spans="1:7" ht="12.75">
+    <row r="126" spans="1:7" ht="12.5">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
@@ -2930,13 +2966,13 @@
       <c r="F126" s="21"/>
       <c r="G126" s="39"/>
     </row>
-    <row r="128" spans="1:7" ht="12.75">
+    <row r="128" spans="1:7" ht="13">
       <c r="A128" s="4"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="12.75">
+    <row r="129" spans="1:7" ht="13">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2945,7 +2981,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="64"/>
     </row>
-    <row r="130" spans="1:7" ht="12.75">
+    <row r="130" spans="1:7" ht="12.5">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -2954,7 +2990,7 @@
       <c r="F130" s="37"/>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" ht="12.75">
+    <row r="131" spans="1:7" ht="12.5">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
@@ -2963,7 +2999,7 @@
       <c r="F131" s="34"/>
       <c r="G131" s="21"/>
     </row>
-    <row r="134" spans="1:7" ht="12.75">
+    <row r="134" spans="1:7" ht="13">
       <c r="A134" s="4"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -2978,7 +3014,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="64"/>
     </row>
-    <row r="136" spans="1:7" ht="12.75">
+    <row r="136" spans="1:7" ht="12.5">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -2987,7 +3023,7 @@
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
     </row>
-    <row r="137" spans="1:7" ht="12.75">
+    <row r="137" spans="1:7" ht="12.5">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -2996,7 +3032,7 @@
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" ht="12.75">
+    <row r="138" spans="1:7" ht="12.5">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
@@ -3005,13 +3041,13 @@
       <c r="F138" s="22"/>
       <c r="G138" s="22"/>
     </row>
-    <row r="140" spans="1:7" ht="12.75">
+    <row r="140" spans="1:7" ht="13">
       <c r="A140" s="66"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:7" ht="12.75">
+    <row r="141" spans="1:7" ht="13">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3020,7 +3056,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="64"/>
     </row>
-    <row r="142" spans="1:7" ht="12.75">
+    <row r="142" spans="1:7" ht="12.5">
       <c r="A142" s="5"/>
       <c r="B142" s="67"/>
       <c r="C142" s="5"/>
@@ -3029,7 +3065,7 @@
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
     </row>
-    <row r="143" spans="1:7" ht="12.75">
+    <row r="143" spans="1:7" ht="12.5">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -3038,7 +3074,7 @@
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" ht="12.75">
+    <row r="144" spans="1:7" ht="12.5">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="21"/>
@@ -3047,53 +3083,53 @@
       <c r="F144" s="22"/>
       <c r="G144" s="22"/>
     </row>
-    <row r="145" spans="1:4" ht="12.75">
+    <row r="145" spans="1:4" ht="12.5">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" ht="12.75">
+    <row r="146" spans="1:4" ht="12.5">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:4" ht="12.75">
+    <row r="147" spans="1:4" ht="12.5">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:4" ht="12.75">
+    <row r="148" spans="1:4" ht="12.5">
       <c r="A148" s="1"/>
       <c r="B148" s="68"/>
     </row>
-    <row r="150" spans="1:4" ht="12.75">
+    <row r="150" spans="1:4" ht="12.5">
       <c r="A150" s="1"/>
     </row>
-    <row r="152" spans="1:4" ht="12.75">
+    <row r="152" spans="1:4" ht="12.5">
       <c r="A152" s="69"/>
     </row>
-    <row r="153" spans="1:4" ht="12.75">
+    <row r="153" spans="1:4" ht="12.5">
       <c r="A153" s="69"/>
     </row>
-    <row r="154" spans="1:4" ht="12.75">
+    <row r="154" spans="1:4" ht="12.5">
       <c r="A154" s="69"/>
     </row>
-    <row r="158" spans="1:4" ht="12.75">
+    <row r="158" spans="1:4" ht="12.5">
       <c r="A158" s="69"/>
     </row>
-    <row r="159" spans="1:4" ht="12.75">
+    <row r="159" spans="1:4" ht="13">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:4" ht="12.75">
+    <row r="160" spans="1:4" ht="12.5">
       <c r="A160" s="69"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="1:2" ht="12.75">
+    <row r="161" spans="1:2" ht="12.5">
       <c r="A161" s="69"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:2" ht="12.75">
+    <row r="162" spans="1:2" ht="12.5">
       <c r="A162" s="1"/>
     </row>
-    <row r="166" spans="1:2" ht="12.75">
+    <row r="166" spans="1:2" ht="12.5">
       <c r="A166" s="1"/>
     </row>
   </sheetData>
@@ -3114,19 +3150,19 @@
   </sheetPr>
   <dimension ref="A1:X166"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="48.42578125" customWidth="1"/>
-    <col min="7" max="7" width="55.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" customWidth="1"/>
+    <col min="6" max="6" width="48.453125" customWidth="1"/>
+    <col min="7" max="7" width="55.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -3825,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="12.75">
+    <row r="37" spans="1:24" ht="12.5">
       <c r="A37" s="38" t="s">
         <v>106</v>
       </c>
@@ -3843,7 +3879,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="12.75">
+    <row r="38" spans="1:24" ht="12.5">
       <c r="A38" s="38" t="s">
         <v>109</v>
       </c>
@@ -3861,7 +3897,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="12.75">
+    <row r="39" spans="1:24" ht="12.5">
       <c r="A39" s="38" t="s">
         <v>112</v>
       </c>
@@ -3882,7 +3918,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="12.75">
+    <row r="40" spans="1:24" ht="12.5">
       <c r="A40" s="38" t="s">
         <v>116</v>
       </c>
@@ -3903,7 +3939,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="12.75">
+    <row r="41" spans="1:24" ht="12.5">
       <c r="A41" s="38" t="s">
         <v>119</v>
       </c>
@@ -3923,7 +3959,7 @@
         <v>33293.890335648146</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="12.75">
+    <row r="42" spans="1:24" ht="12.5">
       <c r="A42" s="7" t="s">
         <v>122</v>
       </c>
@@ -3942,7 +3978,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:24" ht="12.75">
+    <row r="43" spans="1:24" ht="12.5">
       <c r="A43" s="21" t="s">
         <v>124</v>
       </c>
@@ -3965,10 +4001,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="12.75">
+    <row r="44" spans="1:24" ht="12.5">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:24" ht="12.75">
+    <row r="45" spans="1:24" ht="13">
       <c r="A45" s="4" t="s">
         <v>127</v>
       </c>
@@ -3982,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="12.75">
+    <row r="46" spans="1:24" ht="13">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -4022,7 +4058,7 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="14.25">
+    <row r="47" spans="1:24" ht="13.5">
       <c r="A47" s="29" t="s">
         <v>128</v>
       </c>
@@ -4043,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="12.75">
+    <row r="48" spans="1:24" ht="12.5">
       <c r="A48" s="38" t="s">
         <v>11</v>
       </c>
@@ -4064,7 +4100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="12.75">
+    <row r="49" spans="1:7" ht="12.5">
       <c r="A49" s="38" t="s">
         <v>131</v>
       </c>
@@ -4087,7 +4123,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="12.75">
+    <row r="50" spans="1:7" ht="12.5">
       <c r="A50" s="38" t="s">
         <v>135</v>
       </c>
@@ -4105,7 +4141,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="12.75">
+    <row r="51" spans="1:7" ht="12.5">
       <c r="A51" s="38" t="s">
         <v>138</v>
       </c>
@@ -4125,7 +4161,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="12.75">
+    <row r="52" spans="1:7" ht="12.5">
       <c r="A52" s="21" t="s">
         <v>141</v>
       </c>
@@ -4148,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="12.75">
+    <row r="54" spans="1:7" ht="13">
       <c r="A54" s="4" t="s">
         <v>144</v>
       </c>
@@ -4162,7 +4198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="12.75">
+    <row r="55" spans="1:7" ht="13">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
@@ -4185,7 +4221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.25">
+    <row r="56" spans="1:7" ht="14">
       <c r="A56" s="29" t="s">
         <v>128</v>
       </c>
@@ -4198,7 +4234,7 @@
       <c r="D56" s="5">
         <v>10</v>
       </c>
-      <c r="E56" s="81" t="s">
+      <c r="E56" s="80" t="s">
         <v>48</v>
       </c>
       <c r="F56" s="41"/>
@@ -4206,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.25">
+    <row r="57" spans="1:7" ht="14">
       <c r="A57" s="33" t="s">
         <v>146</v>
       </c>
@@ -4219,13 +4255,13 @@
       <c r="D57" s="21">
         <v>10</v>
       </c>
-      <c r="E57" s="82"/>
+      <c r="E57" s="81"/>
       <c r="F57" s="44"/>
       <c r="G57" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="12.75">
+    <row r="59" spans="1:7" ht="13">
       <c r="A59" s="4" t="s">
         <v>148</v>
       </c>
@@ -4239,7 +4275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="12.75">
+    <row r="60" spans="1:7" ht="13">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
@@ -4262,7 +4298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="12.75">
+    <row r="61" spans="1:7" ht="12.5">
       <c r="A61" s="29" t="s">
         <v>11</v>
       </c>
@@ -4275,17 +4311,17 @@
       <c r="D61" s="29">
         <v>8</v>
       </c>
-      <c r="E61" s="79" t="s">
+      <c r="E61" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="F61" s="79" t="s">
+      <c r="F61" s="78" t="s">
         <v>149</v>
       </c>
       <c r="G61" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="12.75">
+    <row r="62" spans="1:7" ht="12.5">
       <c r="A62" s="7" t="s">
         <v>103</v>
       </c>
@@ -4298,13 +4334,13 @@
       <c r="D62" s="38">
         <v>10</v>
       </c>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
       <c r="G62" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="12.75">
+    <row r="63" spans="1:7" ht="12.5">
       <c r="A63" s="21" t="s">
         <v>151</v>
       </c>
@@ -4327,10 +4363,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="12.75">
+    <row r="65" spans="1:7" ht="13">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:7" ht="12.75">
+    <row r="66" spans="1:7" ht="13">
       <c r="A66" s="4" t="s">
         <v>154</v>
       </c>
@@ -4344,7 +4380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="12.75">
+    <row r="67" spans="1:7" ht="13">
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
@@ -4367,7 +4403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="12.75">
+    <row r="68" spans="1:7" ht="12.5">
       <c r="A68" s="29" t="s">
         <v>146</v>
       </c>
@@ -4388,7 +4424,7 @@
         <v>1000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="12.75">
+    <row r="69" spans="1:7" ht="12.5">
       <c r="A69" s="33" t="s">
         <v>156</v>
       </c>
@@ -4409,7 +4445,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="12.75">
+    <row r="71" spans="1:7" ht="13">
       <c r="A71" s="4" t="s">
         <v>159</v>
       </c>
@@ -4423,7 +4459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="12.75">
+    <row r="72" spans="1:7" ht="13">
       <c r="A72" s="2" t="s">
         <v>4</v>
       </c>
@@ -4446,7 +4482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="12.75">
+    <row r="73" spans="1:7" ht="12.5">
       <c r="A73" s="29" t="s">
         <v>160</v>
       </c>
@@ -4467,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="12.75">
+    <row r="74" spans="1:7" ht="12.5">
       <c r="A74" s="38" t="s">
         <v>162</v>
       </c>
@@ -4488,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="12.75">
+    <row r="75" spans="1:7" ht="12.5">
       <c r="A75" s="38" t="s">
         <v>163</v>
       </c>
@@ -4511,7 +4547,7 @@
         <v>42392.473958333336</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="12.75">
+    <row r="76" spans="1:7" ht="12.5">
       <c r="A76" s="38" t="s">
         <v>166</v>
       </c>
@@ -4532,7 +4568,7 @@
         <v>10000001</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="12.75">
+    <row r="77" spans="1:7" ht="12.5">
       <c r="A77" s="33" t="s">
         <v>167</v>
       </c>
@@ -4551,7 +4587,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="12.75">
+    <row r="78" spans="1:7" ht="12.5">
       <c r="A78" s="1" t="s">
         <v>170</v>
       </c>
@@ -4569,7 +4605,7 @@
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="12.75">
+    <row r="80" spans="1:7" ht="13">
       <c r="A80" s="4" t="s">
         <v>172</v>
       </c>
@@ -4583,7 +4619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="12.75">
+    <row r="81" spans="1:7" ht="13">
       <c r="A81" s="2" t="s">
         <v>4</v>
       </c>
@@ -4606,7 +4642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="12.75">
+    <row r="82" spans="1:7" ht="12.5">
       <c r="A82" s="5" t="s">
         <v>173</v>
       </c>
@@ -4627,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="12.75">
+    <row r="83" spans="1:7" ht="12.5">
       <c r="A83" s="7" t="s">
         <v>175</v>
       </c>
@@ -4645,7 +4681,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="12.75">
+    <row r="84" spans="1:7" ht="12.5">
       <c r="A84" s="7" t="s">
         <v>163</v>
       </c>
@@ -4668,7 +4704,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="12.75">
+    <row r="85" spans="1:7" ht="12.5">
       <c r="A85" s="7" t="s">
         <v>180</v>
       </c>
@@ -4689,7 +4725,7 @@
         <v>10000001</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="12.75">
+    <row r="86" spans="1:7" ht="12.5">
       <c r="A86" s="21" t="s">
         <v>182</v>
       </c>
@@ -4710,7 +4746,7 @@
         <v>10000002</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="12.75">
+    <row r="88" spans="1:7" ht="13">
       <c r="A88" s="4" t="s">
         <v>184</v>
       </c>
@@ -4724,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="12.75">
+    <row r="89" spans="1:7" ht="13">
       <c r="A89" s="2" t="s">
         <v>4</v>
       </c>
@@ -4747,7 +4783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="12.75">
+    <row r="90" spans="1:7" ht="12.5">
       <c r="A90" s="29" t="s">
         <v>185</v>
       </c>
@@ -4768,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="12.75">
+    <row r="91" spans="1:7" ht="12.5">
       <c r="A91" s="38" t="s">
         <v>187</v>
       </c>
@@ -4789,7 +4825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="12.75">
+    <row r="92" spans="1:7" ht="12.5">
       <c r="A92" s="38" t="s">
         <v>189</v>
       </c>
@@ -4810,7 +4846,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="12.75">
+    <row r="93" spans="1:7" ht="12.5">
       <c r="A93" s="38" t="s">
         <v>192</v>
       </c>
@@ -4829,7 +4865,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="12.75">
+    <row r="94" spans="1:7" ht="12.5">
       <c r="A94" s="38" t="s">
         <v>195</v>
       </c>
@@ -4852,7 +4888,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="12.75">
+    <row r="95" spans="1:7" ht="12.5">
       <c r="A95" s="38" t="s">
         <v>198</v>
       </c>
@@ -4873,7 +4909,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="12.75">
+    <row r="96" spans="1:7" ht="12.5">
       <c r="A96" s="33" t="s">
         <v>201</v>
       </c>
@@ -4894,7 +4930,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="12.75">
+    <row r="98" spans="1:7" ht="13">
       <c r="A98" s="4" t="s">
         <v>205</v>
       </c>
@@ -4908,7 +4944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="12.75">
+    <row r="99" spans="1:7" ht="13">
       <c r="A99" s="2" t="s">
         <v>4</v>
       </c>
@@ -4931,7 +4967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="12.75">
+    <row r="100" spans="1:7" ht="12.5">
       <c r="A100" s="29" t="s">
         <v>206</v>
       </c>
@@ -4952,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="12.75">
+    <row r="101" spans="1:7" ht="12.5">
       <c r="A101" s="38" t="s">
         <v>208</v>
       </c>
@@ -4973,7 +5009,7 @@
         <v>10000001</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="12.75">
+    <row r="102" spans="1:7" ht="12.5">
       <c r="A102" s="38" t="s">
         <v>209</v>
       </c>
@@ -4992,7 +5028,7 @@
       <c r="F102" s="51"/>
       <c r="G102" s="11"/>
     </row>
-    <row r="103" spans="1:7" ht="12.75">
+    <row r="103" spans="1:7" ht="12.5">
       <c r="A103" s="38" t="s">
         <v>212</v>
       </c>
@@ -5007,7 +5043,7 @@
       <c r="F103" s="51"/>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="1:7" ht="12.75">
+    <row r="104" spans="1:7" ht="12.5">
       <c r="A104" s="38" t="s">
         <v>214</v>
       </c>
@@ -5028,7 +5064,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="12.75">
+    <row r="105" spans="1:7" ht="12.5">
       <c r="A105" s="38" t="s">
         <v>217</v>
       </c>
@@ -5049,7 +5085,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="12.75">
+    <row r="106" spans="1:7" ht="12.5">
       <c r="A106" s="53" t="s">
         <v>220</v>
       </c>
@@ -5068,10 +5104,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="44.25">
+    <row r="107" spans="1:7" ht="44.5">
       <c r="B107" s="57"/>
     </row>
-    <row r="108" spans="1:7" ht="12.75">
+    <row r="108" spans="1:7" ht="13">
       <c r="A108" s="4" t="s">
         <v>223</v>
       </c>
@@ -5085,7 +5121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="12.75">
+    <row r="109" spans="1:7" ht="13">
       <c r="A109" s="2" t="s">
         <v>4</v>
       </c>
@@ -5108,7 +5144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="12.75">
+    <row r="110" spans="1:7" ht="12.5">
       <c r="A110" s="32" t="s">
         <v>224</v>
       </c>
@@ -5127,7 +5163,7 @@
       <c r="F110" s="37"/>
       <c r="G110" s="59"/>
     </row>
-    <row r="111" spans="1:7" ht="12.75">
+    <row r="111" spans="1:7" ht="12.5">
       <c r="A111" s="38" t="s">
         <v>103</v>
       </c>
@@ -5148,7 +5184,7 @@
         <v>10000001</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="12.75">
+    <row r="112" spans="1:7" ht="12.5">
       <c r="A112" s="1" t="s">
         <v>226</v>
       </c>
@@ -5166,7 +5202,7 @@
       </c>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="1:7" ht="12.75">
+    <row r="113" spans="1:7" ht="12.5">
       <c r="A113" s="1" t="s">
         <v>228</v>
       </c>
@@ -5186,7 +5222,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="12.75">
+    <row r="114" spans="1:7" ht="12.5">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
@@ -5205,7 +5241,7 @@
         <v>42362.517361111109</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="12.75">
+    <row r="115" spans="1:7" ht="12.5">
       <c r="A115" s="1" t="s">
         <v>233</v>
       </c>
@@ -5224,7 +5260,7 @@
         <v>41267.515983796293</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="12.75">
+    <row r="116" spans="1:7" ht="12.5">
       <c r="A116" s="31"/>
       <c r="B116" s="31"/>
       <c r="C116" s="31"/>
@@ -5233,7 +5269,7 @@
       <c r="F116" s="62"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="12.75">
+    <row r="119" spans="1:7" ht="13">
       <c r="A119" s="63" t="s">
         <v>235</v>
       </c>
@@ -5247,7 +5283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="12.75">
+    <row r="120" spans="1:7" ht="13">
       <c r="A120" s="2" t="s">
         <v>4</v>
       </c>
@@ -5270,7 +5306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="12.75">
+    <row r="121" spans="1:7" ht="12.5">
       <c r="A121" s="5" t="s">
         <v>236</v>
       </c>
@@ -5291,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="12.75">
+    <row r="122" spans="1:7" ht="12.5">
       <c r="A122" s="7" t="s">
         <v>239</v>
       </c>
@@ -5312,7 +5348,7 @@
         <v>1000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="12.75">
+    <row r="123" spans="1:7" ht="12.5">
       <c r="A123" s="7" t="s">
         <v>224</v>
       </c>
@@ -5333,7 +5369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="12.75">
+    <row r="124" spans="1:7" ht="12.5">
       <c r="A124" s="7" t="s">
         <v>241</v>
       </c>
@@ -5352,7 +5388,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="12.75">
+    <row r="125" spans="1:7" ht="12.5">
       <c r="A125" s="7" t="s">
         <v>244</v>
       </c>
@@ -5371,7 +5407,7 @@
         <v>42362.517361111109</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="12.75">
+    <row r="126" spans="1:7" ht="12.5">
       <c r="A126" s="21" t="s">
         <v>246</v>
       </c>
@@ -5394,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="12.75">
+    <row r="128" spans="1:7" ht="13">
       <c r="A128" s="4" t="s">
         <v>249</v>
       </c>
@@ -5408,7 +5444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="12.75">
+    <row r="129" spans="1:7" ht="13">
       <c r="A129" s="2" t="s">
         <v>4</v>
       </c>
@@ -5431,7 +5467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="12.75">
+    <row r="130" spans="1:7" ht="12.5">
       <c r="A130" s="5" t="s">
         <v>250</v>
       </c>
@@ -5452,7 +5488,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="12.75">
+    <row r="131" spans="1:7" ht="12.5">
       <c r="A131" s="21" t="s">
         <v>253</v>
       </c>
@@ -5475,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="12.75">
+    <row r="134" spans="1:7" ht="13">
       <c r="A134" s="4" t="s">
         <v>256</v>
       </c>
@@ -5512,7 +5548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="12.75">
+    <row r="136" spans="1:7" ht="12.5">
       <c r="A136" s="5" t="s">
         <v>257</v>
       </c>
@@ -5531,7 +5567,7 @@
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
     </row>
-    <row r="137" spans="1:7" ht="12.75">
+    <row r="137" spans="1:7" ht="12.5">
       <c r="A137" s="7" t="s">
         <v>259</v>
       </c>
@@ -5548,7 +5584,7 @@
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" ht="12.75">
+    <row r="138" spans="1:7" ht="12.5">
       <c r="A138" s="21" t="s">
         <v>261</v>
       </c>
@@ -5567,7 +5603,7 @@
       <c r="F138" s="22"/>
       <c r="G138" s="22"/>
     </row>
-    <row r="140" spans="1:7" ht="12.75">
+    <row r="140" spans="1:7" ht="13">
       <c r="A140" s="66" t="s">
         <v>263</v>
       </c>
@@ -5581,7 +5617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="12.75">
+    <row r="141" spans="1:7" ht="13">
       <c r="A141" s="2" t="s">
         <v>4</v>
       </c>
@@ -5604,7 +5640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="12.75">
+    <row r="142" spans="1:7" ht="12.5">
       <c r="A142" s="5" t="s">
         <v>264</v>
       </c>
@@ -5623,7 +5659,7 @@
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
     </row>
-    <row r="143" spans="1:7" ht="12.75">
+    <row r="143" spans="1:7" ht="12.5">
       <c r="A143" s="7" t="s">
         <v>259</v>
       </c>
@@ -5640,7 +5676,7 @@
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" ht="12.75">
+    <row r="144" spans="1:7" ht="12.5">
       <c r="A144" s="21" t="s">
         <v>267</v>
       </c>
@@ -5659,18 +5695,18 @@
       <c r="F144" s="22"/>
       <c r="G144" s="22"/>
     </row>
-    <row r="145" spans="1:4" ht="12.75">
+    <row r="145" spans="1:4" ht="12.5">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" ht="12.75">
+    <row r="146" spans="1:4" ht="12.5">
       <c r="A146" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75">
+    <row r="147" spans="1:4" ht="12.5">
       <c r="A147" s="1" t="s">
         <v>270</v>
       </c>
@@ -5678,7 +5714,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75">
+    <row r="148" spans="1:4" ht="12.5">
       <c r="A148" s="1" t="s">
         <v>272</v>
       </c>
@@ -5686,37 +5722,37 @@
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75">
+    <row r="150" spans="1:4" ht="12.5">
       <c r="A150" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75">
+    <row r="152" spans="1:4" ht="12.5">
       <c r="A152" s="69" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75">
+    <row r="153" spans="1:4" ht="12.5">
       <c r="A153" s="69" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75">
+    <row r="154" spans="1:4" ht="12.5">
       <c r="A154" s="69" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75">
+    <row r="158" spans="1:4" ht="12.5">
       <c r="A158" s="69" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75">
+    <row r="159" spans="1:4" ht="13">
       <c r="A159" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75">
+    <row r="160" spans="1:4" ht="12.5">
       <c r="A160" s="69" t="s">
         <v>280</v>
       </c>
@@ -5724,7 +5760,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="12.75">
+    <row r="161" spans="1:2" ht="12.5">
       <c r="A161" s="69" t="s">
         <v>282</v>
       </c>
@@ -5732,10 +5768,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="12.75">
+    <row r="162" spans="1:2" ht="12.5">
       <c r="A162" s="1"/>
     </row>
-    <row r="166" spans="1:2" ht="12.75">
+    <row r="166" spans="1:2" ht="12.5">
       <c r="A166" s="1" t="s">
         <v>284</v>
       </c>
